--- a/Documentos/Planilhas - Tabelas - Quadros/FPA.xlsx
+++ b/Documentos/Planilhas - Tabelas - Quadros/FPA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Análise de Sistemas\7º Período\Projeto de Software I\Versions\trunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Análise de Sistemas\7º Período\Projeto de Software I\Versions\trunk\Documentos\Planilhas - Tabelas - Quadros\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Arquivos" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="211">
   <si>
     <t>ATRIBUTO</t>
   </si>
@@ -610,13 +610,67 @@
   </si>
   <si>
     <t>Tela de Help</t>
+  </si>
+  <si>
+    <t>Custo de Mão de Obra Profissional</t>
+  </si>
+  <si>
+    <t>Salário Mensal (44h/semana)</t>
+  </si>
+  <si>
+    <t>Salário (84h/Mês)</t>
+  </si>
+  <si>
+    <t>Meses Trabalhados</t>
+  </si>
+  <si>
+    <t>Equipe</t>
+  </si>
+  <si>
+    <t>Gerente de Projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analista de Sistemas </t>
+  </si>
+  <si>
+    <t>Analista Programador</t>
+  </si>
+  <si>
+    <t>Administrador de Banco de Dados</t>
+  </si>
+  <si>
+    <t>Analista de Testes</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Recurso</t>
+  </si>
+  <si>
+    <t>Valores (em R$)</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>Outras Despesas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,8 +705,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,8 +777,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -744,11 +850,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -844,41 +1039,56 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2422,6 +2632,48 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="B3:B4"/>
@@ -2429,48 +2681,6 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:H69"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2481,7 +2691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
@@ -3956,14 +4166,198 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="42">
+        <v>7500</v>
+      </c>
+      <c r="D4" s="42">
+        <v>3579.55</v>
+      </c>
+      <c r="E4" s="43">
+        <v>8</v>
+      </c>
+      <c r="F4" s="43">
+        <v>1</v>
+      </c>
+      <c r="G4" s="42">
+        <v>28636.400000000001</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="J4" s="50">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="42">
+        <v>5294</v>
+      </c>
+      <c r="D5" s="42">
+        <v>2526.6799999999998</v>
+      </c>
+      <c r="E5" s="43">
+        <v>5</v>
+      </c>
+      <c r="F5" s="43">
+        <v>1</v>
+      </c>
+      <c r="G5" s="42">
+        <v>12633.4</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="J5" s="50">
+        <v>1267.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="42">
+        <v>4566</v>
+      </c>
+      <c r="D6" s="42">
+        <v>2179.23</v>
+      </c>
+      <c r="E6" s="43">
+        <v>4</v>
+      </c>
+      <c r="F6" s="43">
+        <v>1</v>
+      </c>
+      <c r="G6" s="42">
+        <v>8716.92</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" s="52">
+        <v>60794.55</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="42">
+        <v>5547</v>
+      </c>
+      <c r="D7" s="42">
+        <v>2647.43</v>
+      </c>
+      <c r="E7" s="43">
+        <v>3</v>
+      </c>
+      <c r="F7" s="43">
+        <v>1</v>
+      </c>
+      <c r="G7" s="42">
+        <v>7942.29</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" s="50">
+        <v>3505.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="42">
+        <v>3002</v>
+      </c>
+      <c r="D8" s="42">
+        <v>1432.77</v>
+      </c>
+      <c r="E8" s="43">
+        <v>1</v>
+      </c>
+      <c r="F8" s="43">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42">
+        <v>2865.54</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="J8" s="53">
+        <f>SUM(J4:J7)</f>
+        <v>66067.55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="42">
+        <v>60794.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:F9"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentos/Planilhas - Tabelas - Quadros/FPA.xlsx
+++ b/Documentos/Planilhas - Tabelas - Quadros/FPA.xlsx
@@ -1009,6 +1009,42 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1039,21 +1075,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1062,27 +1083,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1503,43 +1503,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="29" t="s">
+      <c r="C3" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="10" t="s">
         <v>7</v>
       </c>
@@ -1632,43 +1632,43 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="29" t="s">
+      <c r="C12" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="29"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="10" t="s">
         <v>7</v>
       </c>
@@ -1823,43 +1823,43 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="29" t="s">
+      <c r="C25" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="29"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="10" t="s">
         <v>7</v>
       </c>
@@ -1910,43 +1910,43 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="29" t="s">
+      <c r="C32" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="29"/>
+      <c r="H32" s="41"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="10" t="s">
         <v>7</v>
       </c>
@@ -2063,43 +2063,43 @@
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="29" t="s">
+      <c r="C43" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="29" t="s">
+      <c r="E43" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="29" t="s">
+      <c r="F43" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="29" t="s">
+      <c r="G43" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="29"/>
+      <c r="H43" s="41"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
       <c r="G44" s="10" t="s">
         <v>7</v>
       </c>
@@ -2216,43 +2216,43 @@
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="29" t="s">
+      <c r="C54" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="29" t="s">
+      <c r="E54" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="F54" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G54" s="29" t="s">
+      <c r="G54" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H54" s="29"/>
+      <c r="H54" s="41"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
       <c r="G55" s="10" t="s">
         <v>7</v>
       </c>
@@ -2451,43 +2451,43 @@
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="29" t="s">
+      <c r="C69" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E69" s="29" t="s">
+      <c r="E69" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F69" s="29" t="s">
+      <c r="F69" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G69" s="29" t="s">
+      <c r="G69" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H69" s="29"/>
+      <c r="H69" s="41"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
       <c r="G70" s="10" t="s">
         <v>7</v>
       </c>
@@ -2632,6 +2632,48 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:H54"/>
     <mergeCell ref="B68:H68"/>
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="C69:C70"/>
@@ -2639,48 +2681,6 @@
     <mergeCell ref="E69:E70"/>
     <mergeCell ref="F69:F70"/>
     <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2704,12 +2704,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
@@ -2831,12 +2831,12 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
     </row>
     <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
@@ -3175,12 +3175,12 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
     </row>
     <row r="43" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="15" t="s">
@@ -3533,12 +3533,12 @@
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
     </row>
     <row r="70" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="15" t="s">
@@ -3632,14 +3632,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
@@ -3662,7 +3662,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="43" t="s">
         <v>161</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -3678,13 +3678,13 @@
         <f>D4*E4</f>
         <v>49</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="43">
         <f>SUM(F4:F6)</f>
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="32"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="4" t="s">
         <v>165</v>
       </c>
@@ -3698,10 +3698,10 @@
         <f t="shared" ref="F5:F18" si="0">D5*E5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="32"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="4" t="s">
         <v>166</v>
       </c>
@@ -3715,10 +3715,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="45"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="43" t="s">
         <v>162</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3734,13 +3734,13 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="43">
         <f t="shared" ref="G7" si="1">SUM(F7:F9)</f>
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="4" t="s">
         <v>165</v>
       </c>
@@ -3754,10 +3754,10 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="33"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="4" t="s">
         <v>166</v>
       </c>
@@ -3771,10 +3771,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="45"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="43" t="s">
         <v>163</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -3790,13 +3790,13 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="43">
         <f t="shared" ref="G10" si="2">SUM(F10:F12)</f>
         <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="4" t="s">
         <v>165</v>
       </c>
@@ -3810,10 +3810,10 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G11" s="32"/>
+      <c r="G11" s="44"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="33"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="4" t="s">
         <v>166</v>
       </c>
@@ -3827,10 +3827,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="33"/>
+      <c r="G12" s="45"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="47" t="s">
         <v>164</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -3846,13 +3846,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="43">
         <f t="shared" ref="G13" si="3">SUM(F13:F15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="36"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="21" t="s">
         <v>165</v>
       </c>
@@ -3866,10 +3866,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="32"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="21" t="s">
         <v>166</v>
       </c>
@@ -3883,10 +3883,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="33"/>
+      <c r="G15" s="45"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="50" t="s">
         <v>170</v>
       </c>
       <c r="C16" s="21" t="s">
@@ -3902,13 +3902,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="43">
         <f t="shared" ref="G16" si="4">SUM(F16:F18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="38"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="21" t="s">
         <v>165</v>
       </c>
@@ -3922,10 +3922,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="32"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="38"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="21" t="s">
         <v>166</v>
       </c>
@@ -3939,7 +3939,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="33"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F19" s="23" t="s">
@@ -4000,10 +4000,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="46"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
@@ -4169,7 +4169,7 @@
   <dimension ref="B2:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4185,172 +4185,178 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="35" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="32">
         <v>7500</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="32">
         <v>3579.55</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="33">
         <v>8</v>
       </c>
-      <c r="F4" s="43">
-        <v>1</v>
-      </c>
-      <c r="G4" s="42">
+      <c r="F4" s="33">
+        <v>1</v>
+      </c>
+      <c r="G4" s="32">
+        <f>D4*E4*F4</f>
         <v>28636.400000000001</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J4" s="37">
         <v>500</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="32">
         <v>5294</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="32">
         <v>2526.6799999999998</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="33">
         <v>5</v>
       </c>
-      <c r="F5" s="43">
-        <v>1</v>
-      </c>
-      <c r="G5" s="42">
+      <c r="F5" s="33">
+        <v>1</v>
+      </c>
+      <c r="G5" s="32">
+        <f t="shared" ref="G5:G8" si="0">D5*E5*F5</f>
         <v>12633.4</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="J5" s="50">
+      <c r="J5" s="37">
         <v>1267.5</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="32">
         <v>4566</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="32">
         <v>2179.23</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="33">
         <v>4</v>
       </c>
-      <c r="F6" s="43">
-        <v>1</v>
-      </c>
-      <c r="G6" s="42">
-        <v>8716.92</v>
-      </c>
-      <c r="I6" s="51" t="s">
+      <c r="F6" s="33">
+        <v>2</v>
+      </c>
+      <c r="G6" s="32">
+        <f t="shared" si="0"/>
+        <v>17433.84</v>
+      </c>
+      <c r="I6" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="J6" s="52">
-        <v>60794.55</v>
+      <c r="J6" s="39">
+        <v>68078.7</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="32">
         <v>5547</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="32">
         <v>2647.43</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="33">
         <v>3</v>
       </c>
-      <c r="F7" s="43">
-        <v>1</v>
-      </c>
-      <c r="G7" s="42">
-        <v>7942.29</v>
-      </c>
-      <c r="I7" s="51" t="s">
+      <c r="F7" s="33">
+        <v>1</v>
+      </c>
+      <c r="G7" s="32">
+        <f t="shared" si="0"/>
+        <v>7942.2899999999991</v>
+      </c>
+      <c r="I7" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="J7" s="50">
+      <c r="J7" s="37">
         <v>3505.5</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="32">
         <v>3002</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="32">
         <v>1432.77</v>
       </c>
-      <c r="E8" s="43">
-        <v>1</v>
-      </c>
-      <c r="F8" s="43">
-        <v>2</v>
-      </c>
-      <c r="G8" s="42">
-        <v>2865.54</v>
-      </c>
-      <c r="I8" s="51" t="s">
+      <c r="E8" s="33">
+        <v>1</v>
+      </c>
+      <c r="F8" s="33">
+        <v>1</v>
+      </c>
+      <c r="G8" s="32">
+        <f t="shared" si="0"/>
+        <v>1432.77</v>
+      </c>
+      <c r="I8" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="J8" s="53">
+      <c r="J8" s="40">
         <f>SUM(J4:J7)</f>
-        <v>66067.55</v>
+        <v>73351.7</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="42">
-        <v>60794.55</v>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="32">
+        <f>SUM(G4:G8)</f>
+        <v>68078.7</v>
       </c>
     </row>
   </sheetData>
